--- a/biology/Zoologie/Heteromys_desmarestianus/Heteromys_desmarestianus.xlsx
+++ b/biology/Zoologie/Heteromys_desmarestianus/Heteromys_desmarestianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heteromys desmarestianus est une espèce de rongeurs de la famille des Heteromyidae qui regroupe les souris kangourou d'Amérique. Ce petit mammifère fait partie des Souris épineuses à poches[1], c'est-à-dire à larges abajoues. Il est présent en Colombie, Équateur, Panama et Venezuela.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heteromys desmarestianus est une espèce de rongeurs de la famille des Heteromyidae qui regroupe les souris kangourou d'Amérique. Ce petit mammifère fait partie des Souris épineuses à poches, c'est-à-dire à larges abajoues. Il est présent en Colombie, Équateur, Panama et Venezuela.
 L'espèce a été décrite pour la première fois en 1868 par le zoologiste britannique John Edward Gray (1800-1875).
 </t>
         </is>
@@ -512,14 +524,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (21 nov. 2012)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (21 nov. 2012) :
 sous-espèce Heteromys desmarestianus chiriquensis
 sous-espèce Heteromys desmarestianus crassirostris
 sous-espèce Heteromys desmarestianus desmarestianus
 sous-espèce Heteromys desmarestianus fuscatus
-sous-espèce Heteromys desmarestianus goldmani - Souris à poches de Goldman[1], une espèce à part entière selon ITIS et NCBI : Heteromys goldmani Merriam, 1902.
+sous-espèce Heteromys desmarestianus goldmani - Souris à poches de Goldman, une espèce à part entière selon ITIS et NCBI : Heteromys goldmani Merriam, 1902.
 sous-espèce Heteromys desmarestianus panamensis
 sous-espèce Heteromys desmarestianus planifrons
 sous-espèce Heteromys desmarestianus repens
@@ -527,7 +541,7 @@
 sous-espèce Heteromys desmarestianus temporalis
 sous-espèce Heteromys desmarestianus underwoodi
 sous-espèce Heteromys desmarestianus zonalis
-Selon NCBI  (21 nov. 2012)[3] :
+Selon NCBI  (21 nov. 2012) :
 sous-espèce Heteromys desmarestianus desmarestianus</t>
         </is>
       </c>
